--- a/tools/help_data/GenshinUID Help.xlsx
+++ b/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
   <si>
     <t>模块</t>
   </si>
@@ -73,10 +73,10 @@
     <t>gs开启自动米游币</t>
   </si>
   <si>
-    <t>体力/派遣/宝钱/质变仪</t>
-  </si>
-  <si>
-    <t>开启 体力/派遣/宝钱/质变仪 推送</t>
+    <t>[推送项]</t>
+  </si>
+  <si>
+    <t>体力/派遣/宝钱/质变仪推送</t>
   </si>
   <si>
     <t>gs开启体力、gs开启派遣</t>
@@ -85,7 +85,7 @@
     <t>[推送项]阈值</t>
   </si>
   <si>
-    <t>设置推送的阈值, 质变仪单位为分钟</t>
+    <t>设置推送的阈值</t>
   </si>
   <si>
     <t>gs设置体力阈值140</t>
@@ -97,7 +97,7 @@
     <t>查询</t>
   </si>
   <si>
-    <t>查询角色信息一览,后可跟UID</t>
+    <t>角色信息一览,后可跟UID</t>
   </si>
   <si>
     <t>查询100740568</t>
@@ -106,7 +106,7 @@
     <t>[上期]深渊/sy</t>
   </si>
   <si>
-    <t>查询深渊信息一览,后可跟UID</t>
+    <t>深渊信息一览,后可跟UID</t>
   </si>
   <si>
     <t>深渊100740568</t>
@@ -115,7 +115,7 @@
     <t>收集/sj</t>
   </si>
   <si>
-    <t>查询收集百分比,后可跟UID</t>
+    <t>收集百分比,后可跟UID</t>
   </si>
   <si>
     <t>收集100740568</t>
@@ -124,7 +124,7 @@
     <t>每日/mr</t>
   </si>
   <si>
-    <t>查询自己的游戏日常和树脂</t>
+    <t>自己的游戏日常和树脂</t>
   </si>
   <si>
     <t>便签</t>
@@ -133,91 +133,178 @@
     <t>当前状态</t>
   </si>
   <si>
-    <t>查询游戏树脂和派遣状态</t>
+    <t>游戏树脂和派遣状态</t>
   </si>
   <si>
     <t>每月统计</t>
   </si>
   <si>
-    <t>查询每月的原石获取情况</t>
+    <t>每月的原石获取情况</t>
+  </si>
+  <si>
+    <t>面板服务 | 数据源由Enka提供</t>
+  </si>
+  <si>
+    <t>强制刷新</t>
+  </si>
+  <si>
+    <t>刷新自己游戏内面板数据</t>
+  </si>
+  <si>
+    <t>强制刷新100740568</t>
+  </si>
+  <si>
+    <t>查询xx</t>
+  </si>
+  <si>
+    <t>查询角色面板</t>
+  </si>
+  <si>
+    <t>查询100740568心海</t>
+  </si>
+  <si>
+    <t>查询展柜角色</t>
+  </si>
+  <si>
+    <t>查询所有已缓存角色列表</t>
+  </si>
+  <si>
+    <t>毕业度统计</t>
+  </si>
+  <si>
+    <t>查询所有已缓存角色的毕业度</t>
+  </si>
+  <si>
+    <t>游戏建议 | 获取一些没用的建议</t>
+  </si>
+  <si>
+    <t>xx用什么</t>
+  </si>
+  <si>
+    <t>角色该如何养成</t>
+  </si>
+  <si>
+    <t>公子怎么养</t>
+  </si>
+  <si>
+    <t>xx给谁用</t>
+  </si>
+  <si>
+    <t>武器/圣遗物能给谁用</t>
+  </si>
+  <si>
+    <t>护摩谁能用</t>
+  </si>
+  <si>
+    <t>xx攻略/推荐</t>
+  </si>
+  <si>
+    <t>西风驿站攻略图</t>
+  </si>
+  <si>
+    <t>可莉推荐</t>
+  </si>
+  <si>
+    <t>参考面板xx</t>
+  </si>
+  <si>
+    <t>角色的小毕业面板</t>
+  </si>
+  <si>
+    <t>参考面板公子</t>
   </si>
   <si>
     <t>活动列表</t>
   </si>
   <si>
-    <t>查询游戏当前的活动列表</t>
-  </si>
-  <si>
-    <t>面板服务 | 数据源由Enka提供</t>
-  </si>
-  <si>
-    <t>强制刷新</t>
-  </si>
-  <si>
-    <t>刷新自己游戏内面板数据</t>
-  </si>
-  <si>
-    <t>强制刷新100740568</t>
-  </si>
-  <si>
-    <t>查询xx</t>
-  </si>
-  <si>
-    <t>查询角色面板</t>
-  </si>
-  <si>
-    <t>查询100740568心海</t>
-  </si>
-  <si>
-    <t>查询展柜角色</t>
-  </si>
-  <si>
-    <t>查询所有已缓存角色列表</t>
-  </si>
-  <si>
-    <t>毕业度统计</t>
-  </si>
-  <si>
-    <t>查询所有已缓存角色的毕业度</t>
-  </si>
-  <si>
-    <t>游戏建议 | 获取一些养成建议</t>
-  </si>
-  <si>
-    <t>xx用什么</t>
-  </si>
-  <si>
-    <t>查询特定角色养成信息</t>
-  </si>
-  <si>
-    <t>公子怎么养</t>
-  </si>
-  <si>
-    <t>xx给谁用</t>
-  </si>
-  <si>
-    <t>查询武器/圣遗物能给谁用</t>
-  </si>
-  <si>
-    <t>护摩谁能用</t>
-  </si>
-  <si>
-    <t>xx攻略/推荐</t>
-  </si>
-  <si>
-    <t>输出一张西风驿站攻略图</t>
-  </si>
-  <si>
-    <t>可莉推荐</t>
-  </si>
-  <si>
-    <t>参考面板xx</t>
-  </si>
-  <si>
-    <t>输出一张角色的小毕业参考面板</t>
-  </si>
-  <si>
-    <t>参考面板公子</t>
+    <t>游戏当前的活动列表</t>
+  </si>
+  <si>
+    <t>任务xx</t>
+  </si>
+  <si>
+    <t>某个任务的攻略</t>
+  </si>
+  <si>
+    <t>任务须弥</t>
+  </si>
+  <si>
+    <t>WIKI | 获取游戏信息</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>武器信息，可后跟数字</t>
+  </si>
+  <si>
+    <t>武器天空、武器天空90</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>角色信息，可后跟数字</t>
+  </si>
+  <si>
+    <t>角色七七90、角色真珠</t>
+  </si>
+  <si>
+    <t>命座、天赋</t>
+  </si>
+  <si>
+    <t>角色命座和技能</t>
+  </si>
+  <si>
+    <t>命座6可莉、天赋4北斗</t>
+  </si>
+  <si>
+    <t>圣遗物</t>
+  </si>
+  <si>
+    <t>查询圣遗物</t>
+  </si>
+  <si>
+    <t>圣遗物冰封</t>
+  </si>
+  <si>
+    <t>食物、原魔</t>
+  </si>
+  <si>
+    <t>查询食物和怪物信息</t>
+  </si>
+  <si>
+    <t>食物鸡、原魔公子</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>查询角色语音</t>
+  </si>
+  <si>
+    <t>语音可莉357</t>
+  </si>
+  <si>
+    <t>生成地图</t>
+  </si>
+  <si>
+    <t>初始化地图模块</t>
+  </si>
+  <si>
+    <t>切换地图</t>
+  </si>
+  <si>
+    <t>切换地图至其他区域</t>
+  </si>
+  <si>
+    <t>xx在哪</t>
+  </si>
+  <si>
+    <t>查找地图资源点</t>
+  </si>
+  <si>
+    <t>甜甜花在哪</t>
   </si>
   <si>
     <t>数据模块 | 有关插件的一些数据</t>
@@ -226,13 +313,13 @@
     <t>校验全部Cookies</t>
   </si>
   <si>
-    <t>校验全部绑定ck的可用状态</t>
+    <t>校验全部ck的状态</t>
   </si>
   <si>
     <t>校验全部Stoken</t>
   </si>
   <si>
-    <t>校验全部绑定sk的可用状态</t>
+    <t>校验全部sk的状态</t>
   </si>
   <si>
     <t>gs配置</t>
@@ -244,13 +331,13 @@
     <t>全部重签</t>
   </si>
   <si>
-    <t>强制执行米游社签到任务</t>
+    <t>强制执行签到任务</t>
   </si>
   <si>
     <t>全部重获取</t>
   </si>
   <si>
-    <t>强制执行米游币获取任务</t>
+    <t>强制执行米游币获取</t>
   </si>
   <si>
     <t>杂图 | 可能会用得上</t>
@@ -259,28 +346,25 @@
     <t>原石预估</t>
   </si>
   <si>
-    <t>查询当前版本奖励,后可跟版本</t>
+    <t>当前版本奖励,后可跟版本</t>
   </si>
   <si>
     <t>版本规划3.0</t>
   </si>
   <si>
+    <t>血量表、抗性表</t>
+  </si>
+  <si>
+    <t>所有怪物的血量和抗性</t>
+  </si>
+  <si>
     <t>血量表</t>
   </si>
   <si>
-    <t>查询所有怪物的血量</t>
-  </si>
-  <si>
-    <t>抗性表</t>
-  </si>
-  <si>
-    <t>查询所有怪物的抗性</t>
-  </si>
-  <si>
     <t>伤害乘区</t>
   </si>
   <si>
-    <t>查询伤害到底有几个乘区</t>
+    <t>伤害到底有几个乘区</t>
   </si>
 </sst>
 </file>
@@ -289,43 +373,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="184" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="mmmmm"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="184" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="yy/m/d"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="190" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="190" formatCode="yy/m/d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="m/d"/>
-    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="195" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="#\ ??"/>
-    <numFmt numFmtId="198" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="mmmmm"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="m/d"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="200" formatCode="#\ ??"/>
+    <numFmt numFmtId="201" formatCode="\¥#,##0;\¥\-#,##0"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -376,10 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,6 +476,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -399,8 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,16 +508,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +533,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,22 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -475,27 +553,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -526,175 +610,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,22 +805,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,40 +876,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,139 +894,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,9 +1050,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1296,7 +1377,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1312,22 +1393,22 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="44.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1335,642 +1416,841 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="6" t="s">
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="6" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/tools/help_data/GenshinUID Help.xlsx
+++ b/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>模块</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>gs设置体力阈值140</t>
+  </si>
+  <si>
+    <t>刷新抽卡记录</t>
+  </si>
+  <si>
+    <t>更新抽卡记录，需要SK</t>
+  </si>
+  <si>
+    <t>抽卡记录</t>
+  </si>
+  <si>
+    <t>查询你的抽卡记录</t>
+  </si>
+  <si>
+    <t>导出抽卡记录</t>
+  </si>
+  <si>
+    <t>仅限群聊，导出UIGF</t>
+  </si>
+  <si>
+    <t>导入抽卡记录</t>
+  </si>
+  <si>
+    <t>导入符合UIGF格式的文件</t>
+  </si>
+  <si>
+    <t>私聊直接发Json文件</t>
   </si>
   <si>
     <t>查询服务 | 可加 [查询]前缀</t>
@@ -374,42 +401,42 @@
   <numFmts count="38">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="189" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="194" formatCode="mmmmm"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="195" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="196" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="#\ ??"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="yy/m/d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="192" formatCode="mmmmm"/>
-    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="m/d"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="#\ ??"/>
-    <numFmt numFmtId="201" formatCode="\¥#,##0;\¥\-#,##0"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -440,14 +467,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,22 +497,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -492,9 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +520,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -516,26 +544,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,8 +565,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,16 +588,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,19 +631,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,157 +769,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,41 +822,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,17 +858,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +874,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +901,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -897,82 +924,82 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,61 +1008,61 @@
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,7 +1404,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1519,33 +1546,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="5"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1553,67 +1597,54 @@
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -1627,10 +1658,10 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>40</v>
@@ -1645,21 +1676,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
@@ -1670,16 +1718,16 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -1699,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
@@ -1708,38 +1756,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>12</v>
@@ -1753,13 +1801,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -1779,47 +1827,30 @@
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>12</v>
@@ -1833,36 +1864,45 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1890,7 +1930,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -1904,53 +1944,44 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>12</v>
@@ -1964,13 +1995,13 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -1984,13 +2015,13 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -1999,15 +2030,15 @@
         <v>12</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>92</v>
@@ -2019,45 +2050,59 @@
         <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="D36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
       </c>
@@ -2065,19 +2110,19 @@
         <v>12</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -2085,18 +2130,18 @@
         <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -2108,36 +2153,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+    <row r="40" spans="2:2">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E41" s="5" t="s">
         <v>12</v>
       </c>
@@ -2145,18 +2176,35 @@
         <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>111</v>
@@ -2173,14 +2221,14 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2236,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -2208,41 +2256,71 @@
         <v>12</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5"/>
@@ -2251,6 +2329,39 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
